--- a/HARE/aula 4/orçamento.xlsx
+++ b/HARE/aula 4/orçamento.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="164" documentId="11_92485C45C1F39E42E268565A893E8C18510380CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3581EE4B-3871-47B0-B4D0-1FEB70C8B757}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="11_92485C45C1F39E42E268565A893E8C18510380CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A633D860-AB30-4C4D-9F54-639076F9A668}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>PRODUTOS</t>
   </si>
@@ -42,31 +42,34 @@
     <t>PREÇO</t>
   </si>
   <si>
-    <t>Processador Intel Core I7</t>
-  </si>
-  <si>
-    <t>Monitor Acer Nitro</t>
-  </si>
-  <si>
-    <t>Water Cooler Pichau Aqua 240X P1</t>
-  </si>
-  <si>
-    <t>Placa Mae ASRock Z690M Phantom 4</t>
-  </si>
-  <si>
-    <t>Memoria Adata XPG Spectrix D35G</t>
-  </si>
-  <si>
-    <t>Placa de Video PNY Geforce RTX 3060</t>
-  </si>
-  <si>
-    <t>SSD Crucial P5 Plus, 2000GB</t>
-  </si>
-  <si>
-    <t>Gabinete Gamer Redragon Wideload Lite</t>
-  </si>
-  <si>
-    <t>Fonte Cooler Master MWE White 550</t>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>Processador Intel Core I5-11400F</t>
+  </si>
+  <si>
+    <t>Monitor Samsung T350</t>
+  </si>
+  <si>
+    <t>Water Cooler Master</t>
+  </si>
+  <si>
+    <t>Placa Mãe GigaByte B450M</t>
+  </si>
+  <si>
+    <t>Memoria Adata XPG Lancer</t>
+  </si>
+  <si>
+    <t>Placa de video Afox GeForce GTX</t>
+  </si>
+  <si>
+    <t>SSD Adata XPG SX8200 PRO 1TB</t>
+  </si>
+  <si>
+    <t>Gabinete NZXT H510</t>
+  </si>
+  <si>
+    <t>Fonte Thermaltake Smart BX1</t>
   </si>
   <si>
     <t>Kit teclado e mouse corsair k55PRO + HARPOONPRO</t>
@@ -75,19 +78,37 @@
     <t>RECEPÇÃO</t>
   </si>
   <si>
-    <t>PC Completo Mancer, AMD Ryzen 5 4600G</t>
+    <t>PC Completo Pichau Home</t>
   </si>
   <si>
     <t xml:space="preserve">OUTROS </t>
   </si>
   <si>
-    <t>Notebook Inspiron 15 3000</t>
+    <t>Notebook Inspiron 15</t>
+  </si>
+  <si>
+    <t>Impressora HP Lazer 107W</t>
+  </si>
+  <si>
+    <t>Projetor Portátil Vankyo Leisure E30 Native</t>
+  </si>
+  <si>
+    <t>SOFTWARE E HARDWARE</t>
+  </si>
+  <si>
+    <t>AutoCAD ANUAL</t>
+  </si>
+  <si>
+    <t>Licença Inventor ANUAL</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO ANUAL</t>
+  </si>
+  <si>
+    <t>Manutenção de equipamentos e software/hardware</t>
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>soma=</t>
   </si>
 </sst>
 </file>
@@ -97,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +135,12 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -137,12 +164,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,12 +496,13 @@
     <col min="1" max="1" width="75.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="18">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -483,234 +512,379 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18">
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="18">
+    <row r="4" spans="1:4" ht="18">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>2941.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18">
+        <v>789</v>
+      </c>
+      <c r="D4" s="3">
+        <f>B4*C4</f>
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>1058.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18">
+        <v>599.9</v>
+      </c>
+      <c r="D5" s="3">
+        <f>B5*C5</f>
+        <v>1199.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>442.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18">
+        <v>589.9</v>
+      </c>
+      <c r="D6" s="3">
+        <f>B6*C6</f>
+        <v>1179.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>1647.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18">
+        <v>629.99</v>
+      </c>
+      <c r="D7" s="3">
+        <f>B7*C7</f>
+        <v>1259.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>247.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18">
+        <v>569.99</v>
+      </c>
+      <c r="D8" s="3">
+        <f>B8*C8</f>
+        <v>1139.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>2175.29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18">
+        <v>759.9</v>
+      </c>
+      <c r="D9" s="3">
+        <f>B9*C9</f>
+        <v>1519.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>1294.1099999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18">
+        <v>359</v>
+      </c>
+      <c r="D10" s="3">
+        <f>B10*C10</f>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>423.41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18">
+        <v>499.9</v>
+      </c>
+      <c r="D11" s="3">
+        <f>B11*C11</f>
+        <v>999.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>470.47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18">
+        <v>470.99</v>
+      </c>
+      <c r="D12" s="3">
+        <f>B12*C12</f>
+        <v>941.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>542.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18">
+        <v>342.99</v>
+      </c>
+      <c r="D13" s="3">
+        <f>B13*C13</f>
+        <v>685.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="18">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="18">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="18">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="18">
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="18">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="18">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>2828.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18">
+        <v>1699.97</v>
+      </c>
+      <c r="D17" s="3">
+        <f>B17*C17</f>
+        <v>1699.97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18">
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="18">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="18">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="18">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="18">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="18">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="18">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>3597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18">
+        <v>2797.88</v>
+      </c>
+      <c r="D21" s="3">
+        <f>B21*C21</f>
+        <v>5595.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="18">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="18">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="18">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>855.9</v>
+      </c>
+      <c r="D23" s="3">
+        <f>B23*C23</f>
+        <v>1711.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="18">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="18">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="18">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>949.99</v>
+      </c>
+      <c r="D25" s="3">
+        <f>B25*C25</f>
+        <v>949.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="18">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" ht="18">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="18">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="18">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" ht="18">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" ht="18">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" ht="18">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="18">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>22267</v>
+      </c>
+      <c r="D29" s="3">
+        <f>B29*C29</f>
+        <v>66801</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>8825</v>
+      </c>
+      <c r="D30" s="3">
+        <f>B30*C30</f>
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18">
       <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" ht="18">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" ht="18">
+      <c r="B31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="18">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="18">
       <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" ht="18">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" ht="18">
+      <c r="B33" s="1"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="18">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>9978.94</v>
+      </c>
+      <c r="D34" s="5">
+        <f>B34*C34</f>
+        <v>9978.94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18">
       <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" ht="18">
-      <c r="A36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="18">
+      <c r="B35" s="1"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="18">
+      <c r="B36" s="1"/>
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3">
+        <f ca="1">SUM(D4:D37)</f>
+        <v>142085.58000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18">
       <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="18">
+      <c r="A38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
